--- a/result/all_species_mat.xlsx
+++ b/result/all_species_mat.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Mac_Workplace/Mac_WorkSpace/leptin/multi-species-compare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Mac_Workplace/Mac_WorkSpace/leptin/multi-species-compare/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A322258F-DF19-D845-BE4D-6C7ECBE2DB9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41B8C76-0383-CB41-9DCC-D4E871B3052E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="3960" windowWidth="37040" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="1380" windowWidth="37040" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_species_mat" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="194">
   <si>
     <t>HO</t>
   </si>
@@ -80,13 +81,535 @@
   </si>
   <si>
     <t>MOUSE</t>
+  </si>
+  <si>
+    <t>Supt3</t>
+  </si>
+  <si>
+    <t>suppressor of Ty 3</t>
+  </si>
+  <si>
+    <t>histone acetyltransferase activity</t>
+  </si>
+  <si>
+    <t>transcription initiation factor tfiid/supt3-related pthr11380</t>
+  </si>
+  <si>
+    <t>Wdr5</t>
+  </si>
+  <si>
+    <t>WD repeat domain 5</t>
+  </si>
+  <si>
+    <t>histone acetyltransferase activity (H4-K5 specific)</t>
+  </si>
+  <si>
+    <t>wd40 repeat protein pthr22847</t>
+  </si>
+  <si>
+    <t>Kat6a</t>
+  </si>
+  <si>
+    <t>K(lysine) acetyltransferase 6A</t>
+  </si>
+  <si>
+    <t>histone acetyltransferase pthr10615</t>
+  </si>
+  <si>
+    <t>H4 histone acetyltransferase activity</t>
+  </si>
+  <si>
+    <t>Taf5l</t>
+  </si>
+  <si>
+    <t>TATA-box binding protein associated factor 5 like</t>
+  </si>
+  <si>
+    <t>transcription initiation factor tfiid pthr19879</t>
+  </si>
+  <si>
+    <t>Ing3</t>
+  </si>
+  <si>
+    <t>inhibitor of growth family, member 3</t>
+  </si>
+  <si>
+    <t>inhibitor of growth protein pthr10333</t>
+  </si>
+  <si>
+    <t>Gtf3c4</t>
+  </si>
+  <si>
+    <t>general transcription factor IIIC, polypeptide 4</t>
+  </si>
+  <si>
+    <t>family not named pthr15496</t>
+  </si>
+  <si>
+    <t>Mettl8</t>
+  </si>
+  <si>
+    <t>methyltransferase like 8</t>
+  </si>
+  <si>
+    <t>methyltransferase-related pthr22809</t>
+  </si>
+  <si>
+    <t>Ncoa3</t>
+  </si>
+  <si>
+    <t>nuclear receptor coactivator 3</t>
+  </si>
+  <si>
+    <t>nuclear receptor coactivator pthr10684</t>
+  </si>
+  <si>
+    <t>Ncoa1</t>
+  </si>
+  <si>
+    <t>nuclear receptor coactivator 1</t>
+  </si>
+  <si>
+    <t>Tada2a</t>
+  </si>
+  <si>
+    <t>transcriptional adaptor 2A</t>
+  </si>
+  <si>
+    <t>transcriptional adaptor 2 (ada2)-related pthr12374</t>
+  </si>
+  <si>
+    <t>Epc1</t>
+  </si>
+  <si>
+    <t>enhancer of polycomb homolog 1</t>
+  </si>
+  <si>
+    <t>enhancer of polycomb pthr14898</t>
+  </si>
+  <si>
+    <t>Epc2</t>
+  </si>
+  <si>
+    <t>enhancer of polycomb homolog 2</t>
+  </si>
+  <si>
+    <t>Naa50</t>
+  </si>
+  <si>
+    <t>N(alpha)-acetyltransferase 50, NatE catalytic subunit</t>
+  </si>
+  <si>
+    <t>n-terminal acetyltransferase pthr23091</t>
+  </si>
+  <si>
+    <t>Kat7</t>
+  </si>
+  <si>
+    <t>K(lysine) acetyltransferase 7</t>
+  </si>
+  <si>
+    <t>Dpf3</t>
+  </si>
+  <si>
+    <t>D4, zinc and double PHD fingers, family 3</t>
+  </si>
+  <si>
+    <t>Hat1</t>
+  </si>
+  <si>
+    <t>histone aminotransferase 1</t>
+  </si>
+  <si>
+    <t>histone acetyltransferase type b catalytic subunit pthr12046</t>
+  </si>
+  <si>
+    <t>Brpf1</t>
+  </si>
+  <si>
+    <t>bromodomain and PHD finger containing, 1</t>
+  </si>
+  <si>
+    <t>histone acetyltransferase activity (H3-K23 specific)</t>
+  </si>
+  <si>
+    <t>phd finger proteins pthr13793</t>
+  </si>
+  <si>
+    <t>Phf10</t>
+  </si>
+  <si>
+    <t>PHD finger protein 10</t>
+  </si>
+  <si>
+    <t>Supt7l</t>
+  </si>
+  <si>
+    <t>suppressor of Ty 7-like</t>
+  </si>
+  <si>
+    <t>family not named pthr32132</t>
+  </si>
+  <si>
+    <t>Hcfc1</t>
+  </si>
+  <si>
+    <t>host cell factor C1</t>
+  </si>
+  <si>
+    <t>kelch repeat domain pthr23244</t>
+  </si>
+  <si>
+    <t>Naa40</t>
+  </si>
+  <si>
+    <t>N(alpha)-acetyltransferase 40, NatD catalytic subunit</t>
+  </si>
+  <si>
+    <t>family not named pthr20531</t>
+  </si>
+  <si>
+    <t>Elp3</t>
+  </si>
+  <si>
+    <t>elongator acetyltransferase complex subunit 3</t>
+  </si>
+  <si>
+    <t>Nat8f3</t>
+  </si>
+  <si>
+    <t>N-acetyltransferase 8 (GCN5-related) family member 3</t>
+  </si>
+  <si>
+    <t>family not named pthr13947</t>
+  </si>
+  <si>
+    <t>Dpf1</t>
+  </si>
+  <si>
+    <t>D4, zinc and double PHD fingers family 1</t>
+  </si>
+  <si>
+    <t>Phf20</t>
+  </si>
+  <si>
+    <t>PHD finger protein 20</t>
+  </si>
+  <si>
+    <t>phd finger protein 20-related pthr15856</t>
+  </si>
+  <si>
+    <t>Med24</t>
+  </si>
+  <si>
+    <t>mediator complex subunit 24</t>
+  </si>
+  <si>
+    <t>thyroid hormone receptor-associated protein complex 100 kda component (trap100) (thyroid hormone receptor associated protein 4) pthr12898</t>
+  </si>
+  <si>
+    <t>Ogt</t>
+  </si>
+  <si>
+    <t>O-linked N-acetylglucosamine (GlcNAc) transferase (UDP-N-acetylglucosamine:polypeptide-N-acetylglucosaminyl transferase)</t>
+  </si>
+  <si>
+    <t>tetratricopeptide repeat protein, tpr pthr23083</t>
+  </si>
+  <si>
+    <t>Pole3</t>
+  </si>
+  <si>
+    <t>polymerase (DNA directed), epsilon 3 (p17 subunit)</t>
+  </si>
+  <si>
+    <t>ccaat-binding transcription factor-related pthr11064</t>
+  </si>
+  <si>
+    <t>Ep300</t>
+  </si>
+  <si>
+    <t>E1A binding protein p300</t>
+  </si>
+  <si>
+    <t>cbp/p300-related pthr13808</t>
+  </si>
+  <si>
+    <t>Taf9b</t>
+  </si>
+  <si>
+    <t>TATA-box binding protein associated factor 9B</t>
+  </si>
+  <si>
+    <t>transcription initiation factor tfiid component pthr12075</t>
+  </si>
+  <si>
+    <t>Taf5</t>
+  </si>
+  <si>
+    <t>TATA-box binding protein associated factor 5</t>
+  </si>
+  <si>
+    <t>Crebbp</t>
+  </si>
+  <si>
+    <t>CREB binding protein</t>
+  </si>
+  <si>
+    <t>Tada3</t>
+  </si>
+  <si>
+    <t>transcriptional adaptor 3</t>
+  </si>
+  <si>
+    <t>transcriptional adapter 3-related pthr13556</t>
+  </si>
+  <si>
+    <t>Naa60</t>
+  </si>
+  <si>
+    <t>N(alpha)-acetyltransferase 60, NatF catalytic subunit</t>
+  </si>
+  <si>
+    <t>family not named pthr14744</t>
+  </si>
+  <si>
+    <t>Meaf6</t>
+  </si>
+  <si>
+    <t>MYST/Esa1-associated factor 6</t>
+  </si>
+  <si>
+    <t>uncharacterized pthr13476</t>
+  </si>
+  <si>
+    <t>Tada2b</t>
+  </si>
+  <si>
+    <t>transcriptional adaptor 2B</t>
+  </si>
+  <si>
+    <t>Mgea5</t>
+  </si>
+  <si>
+    <t>meningioma expressed antigen 5 (hyaluronidase)</t>
+  </si>
+  <si>
+    <t>family not named pthr13170</t>
+  </si>
+  <si>
+    <t>Kat2b</t>
+  </si>
+  <si>
+    <t>K(lysine) acetyltransferase 2B</t>
+  </si>
+  <si>
+    <t>falz-related bromodomain-containing proteins pthr22880</t>
+  </si>
+  <si>
+    <t>Kat6b</t>
+  </si>
+  <si>
+    <t>K(lysine) acetyltransferase 6B</t>
+  </si>
+  <si>
+    <t>Mcrs1</t>
+  </si>
+  <si>
+    <t>microspherule protein 1</t>
+  </si>
+  <si>
+    <t>microspherule protein 1 pthr13233</t>
+  </si>
+  <si>
+    <t>Kansl3</t>
+  </si>
+  <si>
+    <t>KAT8 regulatory NSL complex subunit 3</t>
+  </si>
+  <si>
+    <t>testis development protein prtd pthr13136</t>
+  </si>
+  <si>
+    <t>Kansl2</t>
+  </si>
+  <si>
+    <t>KAT8 regulatory NSL complex subunit 2</t>
+  </si>
+  <si>
+    <t>uncharacterized pthr13453</t>
+  </si>
+  <si>
+    <t>Kat8</t>
+  </si>
+  <si>
+    <t>K(lysine) acetyltransferase 8</t>
+  </si>
+  <si>
+    <t>Kat5</t>
+  </si>
+  <si>
+    <t>K(lysine) acetyltransferase 5</t>
+  </si>
+  <si>
+    <t>family not named pthr22443</t>
+  </si>
+  <si>
+    <t>Eid1</t>
+  </si>
+  <si>
+    <t>EP300 interacting inhibitor of differentiation 1</t>
+  </si>
+  <si>
+    <t>histone acetyltransferase regulator activity</t>
+  </si>
+  <si>
+    <t>Cdyl</t>
+  </si>
+  <si>
+    <t>chromodomain protein, Y chromosome-like</t>
+  </si>
+  <si>
+    <t>enoyl-coa hydratase-related pthr11941</t>
+  </si>
+  <si>
+    <t>Taf10</t>
+  </si>
+  <si>
+    <t>TATA-box binding protein associated factor 10</t>
+  </si>
+  <si>
+    <t>transcription initiation factor tfiid subunit 10 pthr21242</t>
+  </si>
+  <si>
+    <t>Taf12</t>
+  </si>
+  <si>
+    <t>TATA-box binding protein associated factor 12</t>
+  </si>
+  <si>
+    <t>family not named pthr12264</t>
+  </si>
+  <si>
+    <t>Kansl1</t>
+  </si>
+  <si>
+    <t>KAT8 regulatory NSL complex subunit 1</t>
+  </si>
+  <si>
+    <t>Rsf1</t>
+  </si>
+  <si>
+    <t>remodeling and spacing factor 1</t>
+  </si>
+  <si>
+    <t>Tada1</t>
+  </si>
+  <si>
+    <t>transcriptional adaptor 1</t>
+  </si>
+  <si>
+    <t>family not named pthr21277</t>
+  </si>
+  <si>
+    <t>Usp22</t>
+  </si>
+  <si>
+    <t>ubiquitin specific peptidase 22</t>
+  </si>
+  <si>
+    <t>family not named pthr24006</t>
+  </si>
+  <si>
+    <t>Taf6l</t>
+  </si>
+  <si>
+    <t>TATA-box binding protein associated factor 6 like</t>
+  </si>
+  <si>
+    <t>transcription initiation factor tfiid subunit 6 pthr10221</t>
+  </si>
+  <si>
+    <t>Dpf2</t>
+  </si>
+  <si>
+    <t>D4, zinc and double PHD fingers family 2</t>
+  </si>
+  <si>
+    <t>Pygo2</t>
+  </si>
+  <si>
+    <t>pygopus 2</t>
+  </si>
+  <si>
+    <t>pygopus pthr23194</t>
+  </si>
+  <si>
+    <t>Taf1</t>
+  </si>
+  <si>
+    <t>TATA-box binding protein associated factor 1</t>
+  </si>
+  <si>
+    <t>transcription initiation factor tfiid pthr13900</t>
+  </si>
+  <si>
+    <t>Kat2a</t>
+  </si>
+  <si>
+    <t>K(lysine) acetyltransferase 2A</t>
+  </si>
+  <si>
+    <t>H3 histone acetyltransferase activity</t>
+  </si>
+  <si>
+    <t>Kat14</t>
+  </si>
+  <si>
+    <t>lysine acetyltransferase 14</t>
+  </si>
+  <si>
+    <t>cysteine and glycine-rich protein 2 binding protein pthr20916</t>
+  </si>
+  <si>
+    <t>Taf9</t>
+  </si>
+  <si>
+    <t>TATA-box binding protein associated factor 9</t>
+  </si>
+  <si>
+    <t>pos9-activating factor fap7-related pthr12595</t>
+  </si>
+  <si>
+    <t>Atf2</t>
+  </si>
+  <si>
+    <t>activating transcription factor 2</t>
+  </si>
+  <si>
+    <t>cyclic-amp response element binding protein pthr19304</t>
+  </si>
+  <si>
+    <t>Brca2</t>
+  </si>
+  <si>
+    <t>breast cancer 2, early onset</t>
+  </si>
+  <si>
+    <t>breast cancer type 2 susceptibility protein brca2 pthr11289</t>
+  </si>
+  <si>
+    <t>Nat8f7</t>
+  </si>
+  <si>
+    <t>N-acetyltransferase 8 (GCN5-related) family member 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,6 +747,20 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -532,7 +1069,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -575,15 +1112,20 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -617,6 +1159,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -939,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2002,4 +2545,2012 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1207F7A-C658-5E43-B2A4-6647153DA9BF}">
+  <dimension ref="A1:D214"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="61.1640625" customWidth="1"/>
+    <col min="3" max="3" width="57.5" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+    </row>
+    <row r="107" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+    </row>
+    <row r="108" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+    </row>
+    <row r="109" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+    </row>
+    <row r="111" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+    </row>
+    <row r="113" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+    </row>
+    <row r="114" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+    </row>
+    <row r="115" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+    </row>
+    <row r="116" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+    </row>
+    <row r="117" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="5"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+    </row>
+    <row r="118" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+    </row>
+    <row r="120" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="5"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="5"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+    </row>
+    <row r="123" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+    </row>
+    <row r="124" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="5"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+    </row>
+    <row r="125" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="5"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+    </row>
+    <row r="126" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+    </row>
+    <row r="127" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="5"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+    </row>
+    <row r="128" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="5"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+    </row>
+    <row r="129" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="5"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="5"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+    </row>
+    <row r="131" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="5"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+    </row>
+    <row r="132" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="5"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+    </row>
+    <row r="133" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="5"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+    </row>
+    <row r="134" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="5"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+    </row>
+    <row r="135" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="5"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="5"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="5"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="5"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+    </row>
+    <row r="140" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="5"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+    </row>
+    <row r="141" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="5"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+    </row>
+    <row r="142" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="5"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+    </row>
+    <row r="143" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="5"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+    </row>
+    <row r="144" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="5"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="5"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+    </row>
+    <row r="146" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="5"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+    </row>
+    <row r="147" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="5"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+    </row>
+    <row r="148" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="5"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+    </row>
+    <row r="149" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+    </row>
+    <row r="150" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+    </row>
+    <row r="151" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+    </row>
+    <row r="152" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+    </row>
+    <row r="153" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+    </row>
+    <row r="154" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="5"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="5"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+    </row>
+    <row r="156" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+    </row>
+    <row r="157" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+    </row>
+    <row r="158" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="5"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+    </row>
+    <row r="159" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="5"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+    </row>
+    <row r="160" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="5"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+    </row>
+    <row r="161" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="5"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+    </row>
+    <row r="162" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="5"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="5"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="5"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+    </row>
+    <row r="165" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="5"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="5"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="5"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="5"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+    </row>
+    <row r="169" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="5"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+    </row>
+    <row r="170" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="5"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+    </row>
+    <row r="171" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="5"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+    </row>
+    <row r="172" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="5"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+    </row>
+    <row r="173" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="5"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+    </row>
+    <row r="174" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="5"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+    </row>
+    <row r="175" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="5"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="5"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="5"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+    </row>
+    <row r="178" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="5"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="5"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+    </row>
+    <row r="180" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="5"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+    </row>
+    <row r="181" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="5"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+    </row>
+    <row r="182" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="5"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+    </row>
+    <row r="183" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="5"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+    </row>
+    <row r="184" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="5"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+    </row>
+    <row r="185" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="5"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="5"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+    </row>
+    <row r="187" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="5"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="5"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+    </row>
+    <row r="189" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="5"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+    </row>
+    <row r="190" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="5"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+    </row>
+    <row r="191" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="5"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+    </row>
+    <row r="192" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="5"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+    </row>
+    <row r="193" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="5"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+    </row>
+    <row r="194" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="5"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+    </row>
+    <row r="195" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="5"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+    </row>
+    <row r="196" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="5"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+    </row>
+    <row r="197" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="5"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+    </row>
+    <row r="198" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="5"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+    </row>
+    <row r="199" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="5"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+    </row>
+    <row r="200" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="5"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+    </row>
+    <row r="201" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="5"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+    </row>
+    <row r="202" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="5"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+    </row>
+    <row r="203" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="5"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+    </row>
+    <row r="204" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="5"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+    </row>
+    <row r="205" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="5"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+    </row>
+    <row r="206" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="5"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+    </row>
+    <row r="207" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="5"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+    </row>
+    <row r="208" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="5"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="5"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+    </row>
+    <row r="210" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="5"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+    </row>
+    <row r="211" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="5"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+    </row>
+    <row r="212" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="5"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+    </row>
+    <row r="213" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="5"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+    </row>
+    <row r="214" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A214" s="5"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+    </row>
+  </sheetData>
+  <sortState ref="A1:D214">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A47" r:id="rId1" tooltip="MGI:MGI:1923723 (go to the details page for Supt3)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1923723" xr:uid="{343ABD50-0EF2-7244-B9F3-876594B27677}"/>
+    <hyperlink ref="C47" r:id="rId2" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{371A8D95-124A-B64B-8F16-3199426E2FA5}"/>
+    <hyperlink ref="D47" r:id="rId3" tooltip="PANTHER:PTHR11380 (go to the page for transcription initiation factor tfiid/supt3-related pthr11380)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR11380" xr:uid="{637584B9-AF08-FC4D-810C-BA62914C6ABE}"/>
+    <hyperlink ref="A64" r:id="rId4" tooltip="MGI:MGI:2155884 (go to the details page for Wdr5)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:2155884" xr:uid="{924DF401-BB55-6B4C-98C8-DE91DF4D1A78}"/>
+    <hyperlink ref="C64" r:id="rId5" tooltip="GO:0043995 (go to the term details page for histone acetyltransferase activity (H4-K5 specific))" display="http://amigo.geneontology.org/amigo/term/GO:0043995" xr:uid="{3F9B458B-F090-954B-81A4-174230B100E8}"/>
+    <hyperlink ref="D64" r:id="rId6" tooltip="PANTHER:PTHR22847 (go to the page for wd40 repeat protein pthr22847)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR22847" xr:uid="{550FEB5F-4AAD-2B48-8038-4AE8E6276C4B}"/>
+    <hyperlink ref="A25" r:id="rId7" tooltip="MGI:MGI:2442415 (go to the details page for Kat6a)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:2442415" xr:uid="{AE737626-9320-E04B-92F3-4A6739E70858}"/>
+    <hyperlink ref="C25" r:id="rId8" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{62A5F4AF-8FAC-3945-83D0-033CA042C8AD}"/>
+    <hyperlink ref="D25" r:id="rId9" tooltip="PANTHER:PTHR10615 (go to the page for histone acetyltransferase pthr10615)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10615" xr:uid="{A1079EB4-1948-FF4F-9717-15EAE62C7FED}"/>
+    <hyperlink ref="A58" r:id="rId10" tooltip="MGI:MGI:1919039 (go to the details page for Taf5l)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1919039" xr:uid="{98CBF446-E82D-AA49-A7C0-76DA8ABB9BF4}"/>
+    <hyperlink ref="C58" r:id="rId11" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{59976A3E-9D83-C742-A5EF-6BB64311C9FD}"/>
+    <hyperlink ref="D58" r:id="rId12" tooltip="PANTHER:PTHR19879 (go to the page for transcription initiation factor tfiid pthr19879)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR19879" xr:uid="{BC2BA776-5900-C846-987B-C52F05543BC4}"/>
+    <hyperlink ref="A17" r:id="rId13" tooltip="MGI:MGI:1919027 (go to the details page for Ing3)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1919027" xr:uid="{9FC743C3-CA30-F749-9FEF-7AC9047F0FEB}"/>
+    <hyperlink ref="C17" r:id="rId14" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{C302F92E-3BA8-3D45-BB3D-72CB6AFC03A8}"/>
+    <hyperlink ref="D17" r:id="rId15" tooltip="PANTHER:PTHR10333 (go to the page for inhibitor of growth protein pthr10333)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10333" xr:uid="{166C36D0-A1F5-C54B-A7DA-CDB15B9A0CB4}"/>
+    <hyperlink ref="A14" r:id="rId16" tooltip="MGI:MGI:2138937 (go to the details page for Gtf3c4)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:2138937" xr:uid="{C36156FD-1E97-7A48-B8EA-F33112BADF66}"/>
+    <hyperlink ref="C14" r:id="rId17" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{CAF9EBC3-79B3-6847-A36A-28F71923D8D1}"/>
+    <hyperlink ref="D14" r:id="rId18" tooltip="PANTHER:PTHR15496 (go to the page for family not named pthr15496)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR15496" xr:uid="{D94A1A2C-0230-424E-AF9D-0601B3486551}"/>
+    <hyperlink ref="A32" r:id="rId19" tooltip="MGI:MGI:2385142 (go to the details page for Mettl8)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:2385142" xr:uid="{7F99BA57-E31F-1F44-9635-FFBCEB1F6759}"/>
+    <hyperlink ref="C32" r:id="rId20" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{F8D489AC-4728-774F-B2BE-1DF0FE515C99}"/>
+    <hyperlink ref="D32" r:id="rId21" tooltip="PANTHER:PTHR22809 (go to the page for methyltransferase-related pthr22809)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR22809" xr:uid="{F3F4C502-7541-6844-9753-2F65FF32A2C5}"/>
+    <hyperlink ref="A40" r:id="rId22" tooltip="MGI:MGI:1276535 (go to the details page for Ncoa3)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1276535" xr:uid="{9E53FADA-9540-0B42-8BDA-3B1426C35C76}"/>
+    <hyperlink ref="C40" r:id="rId23" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{2638D5DC-57C7-AB43-92E0-8D33B12E269F}"/>
+    <hyperlink ref="D40" r:id="rId24" tooltip="PANTHER:PTHR10684 (go to the page for nuclear receptor coactivator pthr10684)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10684" xr:uid="{0E381311-0B8C-B24C-8E0C-539DB46CBB4D}"/>
+    <hyperlink ref="A39" r:id="rId25" tooltip="MGI:MGI:1276523 (go to the details page for Ncoa1)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1276523" xr:uid="{322F39FF-1346-884B-B947-00CCF5F70849}"/>
+    <hyperlink ref="C39" r:id="rId26" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{2D2374CF-DD46-E248-B503-EB341E4CF8D3}"/>
+    <hyperlink ref="D39" r:id="rId27" tooltip="PANTHER:PTHR10684 (go to the page for nuclear receptor coactivator pthr10684)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10684" xr:uid="{313E5C35-3502-FF48-BBB9-09847ED4C7F3}"/>
+    <hyperlink ref="A50" r:id="rId28" tooltip="MGI:MGI:2144471 (go to the details page for Tada2a)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:2144471" xr:uid="{19D4AD1E-6D80-8D4A-97B5-AE766DC786CB}"/>
+    <hyperlink ref="C50" r:id="rId29" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{6068C2BF-B06B-7A40-8668-DE4D94EF64AB}"/>
+    <hyperlink ref="D50" r:id="rId30" tooltip="PANTHER:PTHR12374 (go to the page for transcriptional adaptor 2 (ada2)-related pthr12374)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR12374" xr:uid="{718AFB27-ED54-3F46-B09E-365BB87B5A98}"/>
+    <hyperlink ref="A12" r:id="rId31" tooltip="MGI:MGI:1278322 (go to the details page for Epc1)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1278322" xr:uid="{2DE0CD38-63A8-3B41-941C-EBA1F5A90875}"/>
+    <hyperlink ref="C12" r:id="rId32" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{797A664F-D958-DA4E-8AAC-0D4233B60F4C}"/>
+    <hyperlink ref="D12" r:id="rId33" tooltip="PANTHER:PTHR14898 (go to the page for enhancer of polycomb pthr14898)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR14898" xr:uid="{64645CB7-EC3E-DF44-B51D-977F316D8E4A}"/>
+    <hyperlink ref="A13" r:id="rId34" tooltip="MGI:MGI:1278321 (go to the details page for Epc2)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1278321" xr:uid="{3392B4E8-0003-2E4D-8F96-EB91274A56BF}"/>
+    <hyperlink ref="C13" r:id="rId35" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{AF7102D6-736B-A74E-9C6F-A9D6E04CB434}"/>
+    <hyperlink ref="D13" r:id="rId36" tooltip="PANTHER:PTHR14898 (go to the page for enhancer of polycomb pthr14898)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR14898" xr:uid="{30DA894F-CDF9-2243-BC29-854D275873B5}"/>
+    <hyperlink ref="A35" r:id="rId37" tooltip="MGI:MGI:1919367 (go to the details page for Naa50)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1919367" xr:uid="{A86B535B-FBC6-2D43-9982-CBB88C57C977}"/>
+    <hyperlink ref="C35" r:id="rId38" tooltip="GO:0010485 (go to the term details page for H4 histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0010485" xr:uid="{080BB658-B870-D84E-8242-C4680A77F72F}"/>
+    <hyperlink ref="D35" r:id="rId39" tooltip="PANTHER:PTHR23091 (go to the page for n-terminal acetyltransferase pthr23091)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR23091" xr:uid="{39D2A506-8EC4-5A42-A3CB-B9B93A46009C}"/>
+    <hyperlink ref="A27" r:id="rId40" tooltip="MGI:MGI:2182799 (go to the details page for Kat7)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:2182799" xr:uid="{FDF2BFE1-2ECC-C040-BD5B-E7D24770F9E2}"/>
+    <hyperlink ref="C27" r:id="rId41" tooltip="GO:0010485 (go to the term details page for H4 histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0010485" xr:uid="{83DBA0CE-D184-4A44-AF4D-73547045D753}"/>
+    <hyperlink ref="D27" r:id="rId42" tooltip="PANTHER:PTHR10615 (go to the page for histone acetyltransferase pthr10615)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10615" xr:uid="{CB09AF3F-29E4-CA44-8EC4-DB87D26650B5}"/>
+    <hyperlink ref="A8" r:id="rId43" tooltip="MGI:MGI:1917377 (go to the details page for Dpf3)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1917377" xr:uid="{9A3219BC-C903-C94D-A7E2-46950ACA05CF}"/>
+    <hyperlink ref="C8" r:id="rId44" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{3066355F-0BF7-AB4E-BDE6-9A8A078856C5}"/>
+    <hyperlink ref="D8" r:id="rId45" tooltip="PANTHER:PTHR10615 (go to the page for histone acetyltransferase pthr10615)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10615" xr:uid="{B373DE9D-2C62-B547-9708-763BC394896C}"/>
+    <hyperlink ref="A15" r:id="rId46" tooltip="MGI:MGI:96013 (go to the details page for Hat1)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:96013" xr:uid="{34EEC179-DF16-8146-BC1A-474382284341}"/>
+    <hyperlink ref="C15" r:id="rId47" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{B0B48965-5BBC-FC4C-B56D-A4D0BF49342B}"/>
+    <hyperlink ref="D15" r:id="rId48" tooltip="PANTHER:PTHR12046 (go to the page for histone acetyltransferase type b catalytic subunit pthr12046)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR12046" xr:uid="{6B5E575C-D8E5-5341-9F60-67EB2939E609}"/>
+    <hyperlink ref="A3" r:id="rId49" tooltip="MGI:MGI:1926033 (go to the details page for Brpf1)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1926033" xr:uid="{8FBE13C0-2432-E845-BB5A-201AD3275540}"/>
+    <hyperlink ref="C3" r:id="rId50" tooltip="GO:0043994 (go to the term details page for histone acetyltransferase activity (H3-K23 specific))" display="http://amigo.geneontology.org/amigo/term/GO:0043994" xr:uid="{422EB753-58D8-4D4B-9E76-63EFDABA9919}"/>
+    <hyperlink ref="D3" r:id="rId51" tooltip="PANTHER:PTHR13793 (go to the page for phd finger proteins pthr13793)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR13793" xr:uid="{A36AA2FF-E157-9648-B522-D7B4E79CC26F}"/>
+    <hyperlink ref="A42" r:id="rId52" tooltip="MGI:MGI:1919307 (go to the details page for Phf10)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1919307" xr:uid="{C589E95D-0297-A54F-B959-DA05A8C5CBF2}"/>
+    <hyperlink ref="C42" r:id="rId53" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{473F2118-90DA-304E-BD2A-7E5B1329C07E}"/>
+    <hyperlink ref="D42" r:id="rId54" tooltip="PANTHER:PTHR10615 (go to the page for histone acetyltransferase pthr10615)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10615" xr:uid="{EC990C11-2E5F-3541-864E-2D2F24A523F4}"/>
+    <hyperlink ref="A48" r:id="rId55" tooltip="MGI:MGI:1919445 (go to the details page for Supt7l)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1919445" xr:uid="{F8EA4BBA-72B5-9F40-A182-28417470E792}"/>
+    <hyperlink ref="C48" r:id="rId56" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{846B9874-511A-A94F-9C79-EF31949EE9B1}"/>
+    <hyperlink ref="D48" r:id="rId57" tooltip="PANTHER:PTHR32132 (go to the page for family not named pthr32132)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR32132" xr:uid="{67B8F664-D71A-004D-A7CA-681A2AEC6E0A}"/>
+    <hyperlink ref="A16" r:id="rId58" tooltip="MGI:MGI:105942 (go to the details page for Hcfc1)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:105942" xr:uid="{F3DB0785-D34C-6949-ABBB-773AB2A5132E}"/>
+    <hyperlink ref="C16" r:id="rId59" tooltip="GO:0043995 (go to the term details page for histone acetyltransferase activity (H4-K5 specific))" display="http://amigo.geneontology.org/amigo/term/GO:0043995" xr:uid="{4AF2F822-1203-394A-8573-9CC818E19F7D}"/>
+    <hyperlink ref="D16" r:id="rId60" tooltip="PANTHER:PTHR23244 (go to the page for kelch repeat domain pthr23244)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR23244" xr:uid="{92C38A00-2250-C74C-A751-0A314EFDF5A6}"/>
+    <hyperlink ref="A34" r:id="rId61" tooltip="MGI:MGI:1918249 (go to the details page for Naa40)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1918249" xr:uid="{D0FA8E41-ECA2-704F-8336-02C386C0732F}"/>
+    <hyperlink ref="C34" r:id="rId62" tooltip="GO:0010485 (go to the term details page for H4 histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0010485" xr:uid="{03AC063D-C31B-4B42-8F05-0088DBAF054E}"/>
+    <hyperlink ref="D34" r:id="rId63" tooltip="PANTHER:PTHR20531 (go to the page for family not named pthr20531)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR20531" xr:uid="{6C2DC842-1687-7F48-BF52-D4D145BD66C6}"/>
+    <hyperlink ref="A10" r:id="rId64" tooltip="MGI:MGI:1921445 (go to the details page for Elp3)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1921445" xr:uid="{E38029B3-ADB1-A34D-810E-F199BC47A066}"/>
+    <hyperlink ref="C10" r:id="rId65" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{87D40A1F-A0E2-DA45-9BDC-9750AD533969}"/>
+    <hyperlink ref="A37" r:id="rId66" tooltip="MGI:MGI:2136449 (go to the details page for Nat8f3)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:2136449" xr:uid="{42251F05-5CCE-744B-AEE8-BBEB39F9AAB5}"/>
+    <hyperlink ref="C37" r:id="rId67" tooltip="GO:0010485 (go to the term details page for H4 histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0010485" xr:uid="{E1DC13E0-BF41-674C-AD39-ACB8975E1983}"/>
+    <hyperlink ref="D37" r:id="rId68" tooltip="PANTHER:PTHR13947 (go to the page for family not named pthr13947)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR13947" xr:uid="{3FC02EBD-928A-FF46-8F3D-C2FCFBE37CF1}"/>
+    <hyperlink ref="A6" r:id="rId69" tooltip="MGI:MGI:1352748 (go to the details page for Dpf1)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1352748" xr:uid="{CEBF9AB5-C2DB-5E4E-9C90-06FBEF127E58}"/>
+    <hyperlink ref="C6" r:id="rId70" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{EF3CD0EC-E39B-E641-A112-877E6D287B5F}"/>
+    <hyperlink ref="D6" r:id="rId71" tooltip="PANTHER:PTHR10615 (go to the page for histone acetyltransferase pthr10615)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10615" xr:uid="{B364BDB5-E97D-AC44-9B96-6EC77E412CE2}"/>
+    <hyperlink ref="A43" r:id="rId72" tooltip="MGI:MGI:2444148 (go to the details page for Phf20)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:2444148" xr:uid="{12BC557B-2E56-3D48-BA53-D343C102B294}"/>
+    <hyperlink ref="C43" r:id="rId73" tooltip="GO:0043995 (go to the term details page for histone acetyltransferase activity (H4-K5 specific))" display="http://amigo.geneontology.org/amigo/term/GO:0043995" xr:uid="{2DB2995A-2402-A843-97B7-948AFC4E39E7}"/>
+    <hyperlink ref="D43" r:id="rId74" tooltip="PANTHER:PTHR15856 (go to the page for phd finger protein 20-related pthr15856)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR15856" xr:uid="{87A8171E-1811-6A4D-94B7-CD6FC5037852}"/>
+    <hyperlink ref="A31" r:id="rId75" tooltip="MGI:MGI:1344385 (go to the details page for Med24)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1344385" xr:uid="{8874DF04-80A4-0D4B-BF9D-A04BD967CD0B}"/>
+    <hyperlink ref="C31" r:id="rId76" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{B0E91DFD-FF36-DF40-9288-D82E078F4313}"/>
+    <hyperlink ref="D31" r:id="rId77" tooltip="PANTHER:PTHR12898 (go to the page for thyroid hormone receptor-associated protein complex 100 kda component (trap100) (thyroid hormone receptor associated protein 4) pthr12898)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR12898" xr:uid="{FBDAD967-4BAB-D446-84D1-4899D28B43BD}"/>
+    <hyperlink ref="A41" r:id="rId78" tooltip="MGI:MGI:1339639 (go to the details page for Ogt)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1339639" xr:uid="{A3732BC6-54FC-764F-9680-636DEFBAAFF4}"/>
+    <hyperlink ref="C41" r:id="rId79" tooltip="GO:0043995 (go to the term details page for histone acetyltransferase activity (H4-K5 specific))" display="http://amigo.geneontology.org/amigo/term/GO:0043995" xr:uid="{F99441B7-F22A-B549-B633-5F92485299B0}"/>
+    <hyperlink ref="D41" r:id="rId80" tooltip="PANTHER:PTHR23083 (go to the page for tetratricopeptide repeat protein, tpr pthr23083)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR23083" xr:uid="{D9C2401A-DE24-C141-9A41-100B93B2C648}"/>
+    <hyperlink ref="A44" r:id="rId81" tooltip="MGI:MGI:1933378 (go to the details page for Pole3)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1933378" xr:uid="{42D762FB-1026-7342-B51A-34337F310CD8}"/>
+    <hyperlink ref="C44" r:id="rId82" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{CCA617C1-0A50-3E4F-8A6E-23A819AC24A7}"/>
+    <hyperlink ref="D44" r:id="rId83" tooltip="PANTHER:PTHR11064 (go to the page for ccaat-binding transcription factor-related pthr11064)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR11064" xr:uid="{71B960BA-9329-E84A-9A60-5AAF32706BE1}"/>
+    <hyperlink ref="A11" r:id="rId84" tooltip="MGI:MGI:1276116 (go to the details page for Ep300)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1276116" xr:uid="{5886D2C6-07B0-B746-8444-66982AEEB0CE}"/>
+    <hyperlink ref="C11" r:id="rId85" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{4E8AADDE-8626-CB4C-99B8-2967A4847753}"/>
+    <hyperlink ref="D11" r:id="rId86" tooltip="PANTHER:PTHR13808 (go to the page for cbp/p300-related pthr13808)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR13808" xr:uid="{30A03C2F-F1D7-1B40-862C-E202E08E7EDD}"/>
+    <hyperlink ref="A62" r:id="rId87" tooltip="MGI:MGI:3039562 (go to the details page for Taf9b)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:3039562" xr:uid="{6D10AB95-71C5-0748-9DDA-4C3FF50ED91B}"/>
+    <hyperlink ref="C62" r:id="rId88" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{53FCC1F1-51F5-4447-8A6B-FD76B7504C26}"/>
+    <hyperlink ref="D62" r:id="rId89" tooltip="PANTHER:PTHR12075 (go to the page for transcription initiation factor tfiid component pthr12075)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR12075" xr:uid="{6E4C6179-1A16-A648-B856-5597F67FAE8F}"/>
+    <hyperlink ref="A57" r:id="rId90" tooltip="MGI:MGI:2442144 (go to the details page for Taf5)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:2442144" xr:uid="{8A3DECF5-2B77-C44A-9888-B28C8BF63F0D}"/>
+    <hyperlink ref="C57" r:id="rId91" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{16EF488D-998B-1247-BFFE-F8FBAD4859B9}"/>
+    <hyperlink ref="D57" r:id="rId92" tooltip="PANTHER:PTHR19879 (go to the page for transcription initiation factor tfiid pthr19879)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR19879" xr:uid="{CD578493-7E71-A54B-AD23-2B0F5D934C40}"/>
+    <hyperlink ref="A5" r:id="rId93" tooltip="MGI:MGI:1098280 (go to the details page for Crebbp)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1098280" xr:uid="{D6FD8CDD-9DED-A94E-9C5D-C8D27D25A804}"/>
+    <hyperlink ref="C5" r:id="rId94" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{274C83B5-D28D-E645-BFFD-D836A2A5B323}"/>
+    <hyperlink ref="D5" r:id="rId95" tooltip="PANTHER:PTHR13808 (go to the page for cbp/p300-related pthr13808)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR13808" xr:uid="{3C885603-3925-1F4D-B0DB-E39B02F7116F}"/>
+    <hyperlink ref="A52" r:id="rId96" tooltip="MGI:MGI:1915724 (go to the details page for Tada3)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1915724" xr:uid="{17B35822-4EDA-DC48-B411-F8675B417650}"/>
+    <hyperlink ref="C52" r:id="rId97" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{6562867B-A478-2241-A3A1-4520614600CA}"/>
+    <hyperlink ref="D52" r:id="rId98" tooltip="PANTHER:PTHR13556 (go to the page for transcriptional adapter 3-related pthr13556)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR13556" xr:uid="{6DC5CB00-AFE4-794B-8226-31D649BCB8F7}"/>
+    <hyperlink ref="A36" r:id="rId99" tooltip="MGI:MGI:1922013 (go to the details page for Naa60)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1922013" xr:uid="{0E48ECEF-9032-3740-9CC1-9C0D6C143A2C}"/>
+    <hyperlink ref="C36" r:id="rId100" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{876C0190-92A7-6540-9EEA-80D1CF99C285}"/>
+    <hyperlink ref="D36" r:id="rId101" tooltip="PANTHER:PTHR14744 (go to the page for family not named pthr14744)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR14744" xr:uid="{EE51303D-D4D3-3646-B733-EA7959916883}"/>
+    <hyperlink ref="A30" r:id="rId102" tooltip="MGI:MGI:1917338 (go to the details page for Meaf6)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1917338" xr:uid="{A757B917-69CB-8A47-9857-DF79BE63AF51}"/>
+    <hyperlink ref="C30" r:id="rId103" tooltip="GO:0043994 (go to the term details page for histone acetyltransferase activity (H3-K23 specific))" display="http://amigo.geneontology.org/amigo/term/GO:0043994" xr:uid="{3D6E3181-EDD0-6C40-A139-E0E7FC7368B1}"/>
+    <hyperlink ref="D30" r:id="rId104" tooltip="PANTHER:PTHR13476 (go to the page for uncharacterized pthr13476)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR13476" xr:uid="{F26161B5-0747-CD41-B8B3-A707822802D2}"/>
+    <hyperlink ref="A51" r:id="rId105" tooltip="MGI:MGI:3035274 (go to the details page for Tada2b)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:3035274" xr:uid="{3D6AF268-9C16-F544-9B57-7E0172273095}"/>
+    <hyperlink ref="C51" r:id="rId106" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{DC2A66D7-A33C-3046-B3DA-633788B3FCF0}"/>
+    <hyperlink ref="D51" r:id="rId107" tooltip="PANTHER:PTHR12374 (go to the page for transcriptional adaptor 2 (ada2)-related pthr12374)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR12374" xr:uid="{762F95DE-5EA4-7C4D-862A-CB859DB5D0A4}"/>
+    <hyperlink ref="A33" r:id="rId108" tooltip="MGI:MGI:1932139 (go to the details page for Mgea5)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1932139" xr:uid="{52992464-9E68-9841-9F71-41248D6DC996}"/>
+    <hyperlink ref="C33" r:id="rId109" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{1A98C64C-F35B-7043-BF56-1CBFA734910A}"/>
+    <hyperlink ref="D33" r:id="rId110" tooltip="PANTHER:PTHR13170 (go to the page for family not named pthr13170)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR13170" xr:uid="{025D304C-C94D-4D47-B2BA-0CC0952A5032}"/>
+    <hyperlink ref="A23" r:id="rId111" tooltip="MGI:MGI:1343094 (go to the details page for Kat2b)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1343094" xr:uid="{A4850B46-A248-6745-8CA7-D8EAC830D773}"/>
+    <hyperlink ref="C23" r:id="rId112" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{C8A88185-9716-5D49-951D-30CF0B9BA37D}"/>
+    <hyperlink ref="D23" r:id="rId113" tooltip="PANTHER:PTHR22880 (go to the page for falz-related bromodomain-containing proteins pthr22880)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR22880" xr:uid="{4628D455-AF19-8640-9086-C3E4C60C1547}"/>
+    <hyperlink ref="A26" r:id="rId114" tooltip="MGI:MGI:1858746 (go to the details page for Kat6b)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1858746" xr:uid="{00A90325-4A74-214C-B2F5-AB871106A974}"/>
+    <hyperlink ref="C26" r:id="rId115" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{1A7F0698-7B4E-1047-88A6-73E58DE9C364}"/>
+    <hyperlink ref="D26" r:id="rId116" tooltip="PANTHER:PTHR10615 (go to the page for histone acetyltransferase pthr10615)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10615" xr:uid="{69D6A3BD-42BD-9A4F-88D8-79123E457B80}"/>
+    <hyperlink ref="A29" r:id="rId117" tooltip="MGI:MGI:1858420 (go to the details page for Mcrs1)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1858420" xr:uid="{4051C202-8D06-454F-9721-101B18EA7489}"/>
+    <hyperlink ref="C29" r:id="rId118" tooltip="GO:0043995 (go to the term details page for histone acetyltransferase activity (H4-K5 specific))" display="http://amigo.geneontology.org/amigo/term/GO:0043995" xr:uid="{1A4E0CA1-DB11-D846-9002-0172A3875D2C}"/>
+    <hyperlink ref="D29" r:id="rId119" tooltip="PANTHER:PTHR13233 (go to the page for microspherule protein 1 pthr13233)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR13233" xr:uid="{F105E1EE-538F-664B-9A15-F17F166BE76D}"/>
+    <hyperlink ref="A20" r:id="rId120" tooltip="MGI:MGI:1918055 (go to the details page for Kansl3)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1918055" xr:uid="{85F9C466-6FA5-3842-8A3A-32F60615FBC3}"/>
+    <hyperlink ref="C20" r:id="rId121" tooltip="GO:0043995 (go to the term details page for histone acetyltransferase activity (H4-K5 specific))" display="http://amigo.geneontology.org/amigo/term/GO:0043995" xr:uid="{48822B1B-8090-6B43-8748-B338885CD5CA}"/>
+    <hyperlink ref="D20" r:id="rId122" tooltip="PANTHER:PTHR13136 (go to the page for testis development protein prtd pthr13136)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR13136" xr:uid="{C545B349-9CFD-DE41-800C-CD32807D6715}"/>
+    <hyperlink ref="A19" r:id="rId123" tooltip="MGI:MGI:1916862 (go to the details page for Kansl2)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1916862" xr:uid="{87CC8BAF-D4EF-6542-8C7D-DC0924A45859}"/>
+    <hyperlink ref="C19" r:id="rId124" tooltip="GO:0043995 (go to the term details page for histone acetyltransferase activity (H4-K5 specific))" display="http://amigo.geneontology.org/amigo/term/GO:0043995" xr:uid="{3CC77D42-AD63-134B-89EF-B0E9668117C3}"/>
+    <hyperlink ref="D19" r:id="rId125" tooltip="PANTHER:PTHR13453 (go to the page for uncharacterized pthr13453)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR13453" xr:uid="{CE484B7D-D995-AB40-8034-CCC3B1AED63A}"/>
+    <hyperlink ref="A28" r:id="rId126" tooltip="MGI:MGI:1915023 (go to the details page for Kat8)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1915023" xr:uid="{F5AB31E5-FC43-1D42-B236-4119782F059C}"/>
+    <hyperlink ref="C28" r:id="rId127" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{1757D1C8-2D46-EA46-96B6-6237D278E9CB}"/>
+    <hyperlink ref="D28" r:id="rId128" tooltip="PANTHER:PTHR10615 (go to the page for histone acetyltransferase pthr10615)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10615" xr:uid="{EC2BFAB8-9CB3-5547-A45C-0263BB402391}"/>
+    <hyperlink ref="A24" r:id="rId129" tooltip="MGI:MGI:1932051 (go to the details page for Kat5)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1932051" xr:uid="{E6A3295E-347E-FE45-80F6-B9660ED36389}"/>
+    <hyperlink ref="C24" r:id="rId130" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{A276A3DD-8559-464D-9F87-063B5E4F9EFB}"/>
+    <hyperlink ref="D24" r:id="rId131" tooltip="PANTHER:PTHR10615 (go to the page for histone acetyltransferase pthr10615)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10615" xr:uid="{C2E79376-FA08-414A-9A4B-A9E7A454D5E7}"/>
+    <hyperlink ref="A9" r:id="rId132" tooltip="MGI:MGI:1889651 (go to the details page for Eid1)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1889651" xr:uid="{53D0C43D-4FE5-2C4B-8968-75E2D9F893C2}"/>
+    <hyperlink ref="C9" r:id="rId133" tooltip="GO:0035034 (go to the term details page for histone acetyltransferase regulator activity)" display="http://amigo.geneontology.org/amigo/term/GO:0035034" xr:uid="{8545404B-08DD-9546-83F8-99F23D112A0A}"/>
+    <hyperlink ref="A4" r:id="rId134" tooltip="MGI:MGI:1339956 (go to the details page for Cdyl)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1339956" xr:uid="{723D66E8-2D5B-D545-B9CB-DC04FBE7093F}"/>
+    <hyperlink ref="C4" r:id="rId135" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{7C03D4BD-FFED-E342-B1B4-0B9F947AA6EC}"/>
+    <hyperlink ref="D4" r:id="rId136" tooltip="PANTHER:PTHR11941 (go to the page for enoyl-coa hydratase-related pthr11941)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR11941" xr:uid="{66D95579-0872-1448-AF75-346BB2FE710C}"/>
+    <hyperlink ref="A54" r:id="rId137" tooltip="MGI:MGI:1346320 (go to the details page for Taf10)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1346320" xr:uid="{7E602A79-3380-244B-A595-99C36BAF81C1}"/>
+    <hyperlink ref="C54" r:id="rId138" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{A60BF5DA-EE2B-D642-8D7E-C2A07520EFD1}"/>
+    <hyperlink ref="D54" r:id="rId139" tooltip="PANTHER:PTHR21242 (go to the page for transcription initiation factor tfiid subunit 10 pthr21242)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR21242" xr:uid="{1222EB4D-223D-6C43-9366-887EC4EC98F3}"/>
+    <hyperlink ref="A55" r:id="rId140" tooltip="MGI:MGI:1913714 (go to the details page for Taf12)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1913714" xr:uid="{B39D66D2-76FE-B64E-A63A-71E559AAFA2C}"/>
+    <hyperlink ref="C55" r:id="rId141" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{144BFD38-7DEF-394E-B1D4-0837056E31FC}"/>
+    <hyperlink ref="D55" r:id="rId142" tooltip="PANTHER:PTHR12264 (go to the page for family not named pthr12264)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR12264" xr:uid="{F85DB2FA-5D81-2746-A1F1-A0BC324AC759}"/>
+    <hyperlink ref="A56" r:id="rId143" tooltip="MGI:MGI:1913714 (go to the details page for Taf12)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1913714" xr:uid="{9A7D7BAB-FF74-E342-9787-6AA907C7BD08}"/>
+    <hyperlink ref="C56" r:id="rId144" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{184F548F-FA0D-AF42-A062-11DEAC205B41}"/>
+    <hyperlink ref="D56" r:id="rId145" tooltip="PANTHER:PTHR12264 (go to the page for family not named pthr12264)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR12264" xr:uid="{D1788EB7-5CF5-7E43-B699-6BCC18107875}"/>
+    <hyperlink ref="A18" r:id="rId146" tooltip="MGI:MGI:1923969 (go to the details page for Kansl1)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1923969" xr:uid="{E1162525-C53B-B54F-94F4-780E7526554B}"/>
+    <hyperlink ref="C18" r:id="rId147" tooltip="GO:0043995 (go to the term details page for histone acetyltransferase activity (H4-K5 specific))" display="http://amigo.geneontology.org/amigo/term/GO:0043995" xr:uid="{517D7308-DD59-9C4A-B497-789F8C27550C}"/>
+    <hyperlink ref="D18" r:id="rId148" tooltip="PANTHER:PTHR22443 (go to the page for family not named pthr22443)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR22443" xr:uid="{CC27C40B-98F0-7D44-A99C-B00619C45507}"/>
+    <hyperlink ref="A46" r:id="rId149" tooltip="MGI:MGI:2682305 (go to the details page for Rsf1)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:2682305" xr:uid="{711ACEDF-0EBD-874D-B7A9-DC3FF48C6D33}"/>
+    <hyperlink ref="C46" r:id="rId150" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{03685BE1-A745-6040-978F-2252E3CE0E0A}"/>
+    <hyperlink ref="D46" r:id="rId151" tooltip="PANTHER:PTHR10615 (go to the page for histone acetyltransferase pthr10615)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10615" xr:uid="{E27E3E29-F67C-274A-8E0C-D3E0012C3FB1}"/>
+    <hyperlink ref="A49" r:id="rId152" tooltip="MGI:MGI:1196415 (go to the details page for Tada1)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1196415" xr:uid="{EB7708DE-BB48-D341-96EE-70048D09A5E2}"/>
+    <hyperlink ref="C49" r:id="rId153" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{CD804B5B-B521-0249-AC32-086588C9A8D5}"/>
+    <hyperlink ref="D49" r:id="rId154" tooltip="PANTHER:PTHR21277 (go to the page for family not named pthr21277)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR21277" xr:uid="{3F850892-8DB5-F245-B84E-A7D3934B7E8C}"/>
+    <hyperlink ref="A63" r:id="rId155" tooltip="MGI:MGI:2144157 (go to the details page for Usp22)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:2144157" xr:uid="{74C425A4-7EF7-ED4B-86E2-1616C4BBCE34}"/>
+    <hyperlink ref="C63" r:id="rId156" tooltip="GO:0010485 (go to the term details page for H4 histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0010485" xr:uid="{525FBEC7-B011-724A-B6AD-DB801F23A1CC}"/>
+    <hyperlink ref="D63" r:id="rId157" tooltip="PANTHER:PTHR24006 (go to the page for family not named pthr24006)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR24006" xr:uid="{2860EC0E-FEE8-6A46-80B3-DE6A2BC83E51}"/>
+    <hyperlink ref="A59" r:id="rId158" tooltip="MGI:MGI:2444957 (go to the details page for Taf6l)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:2444957" xr:uid="{41BB884C-6759-C44A-BA1A-B986E3C23F27}"/>
+    <hyperlink ref="C59" r:id="rId159" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{A9063D77-6428-CF49-B020-5540828E969E}"/>
+    <hyperlink ref="D59" r:id="rId160" tooltip="PANTHER:PTHR10221 (go to the page for transcription initiation factor tfiid subunit 6 pthr10221)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10221" xr:uid="{5BC9A39B-6812-694D-8D2B-516D31070E6C}"/>
+    <hyperlink ref="A60" r:id="rId161" tooltip="MGI:MGI:2444957 (go to the details page for Taf6l)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:2444957" xr:uid="{BAF94332-E416-654C-8CA4-A19BBCB61D56}"/>
+    <hyperlink ref="C60" r:id="rId162" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{85BD7553-FFC0-2248-8166-8365279D258F}"/>
+    <hyperlink ref="D60" r:id="rId163" tooltip="PANTHER:PTHR10221 (go to the page for transcription initiation factor tfiid subunit 6 pthr10221)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10221" xr:uid="{F51D4FFE-0A07-7946-82D9-73FD59D5239F}"/>
+    <hyperlink ref="A7" r:id="rId164" tooltip="MGI:MGI:109529 (go to the details page for Dpf2)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:109529" xr:uid="{E54CCB1D-4F90-1149-879C-F50BE0E9AA82}"/>
+    <hyperlink ref="C7" r:id="rId165" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{E16E8FA8-B097-9E4D-82D8-80745DD06C63}"/>
+    <hyperlink ref="D7" r:id="rId166" tooltip="PANTHER:PTHR10615 (go to the page for histone acetyltransferase pthr10615)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR10615" xr:uid="{BBA32770-AE62-2440-9DD2-7C38484B1FF6}"/>
+    <hyperlink ref="A45" r:id="rId167" tooltip="MGI:MGI:1916161 (go to the details page for Pygo2)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1916161" xr:uid="{1338590D-97DF-8D4F-97C8-2233F49303D0}"/>
+    <hyperlink ref="C45" r:id="rId168" tooltip="GO:0035034 (go to the term details page for histone acetyltransferase regulator activity)" display="http://amigo.geneontology.org/amigo/term/GO:0035034" xr:uid="{FB65DE3B-F237-3B43-8DF0-BA104071F139}"/>
+    <hyperlink ref="D45" r:id="rId169" tooltip="PANTHER:PTHR23194 (go to the page for pygopus pthr23194)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR23194" xr:uid="{BB61BAAA-0C1B-9644-971C-441C14EF3A07}"/>
+    <hyperlink ref="A53" r:id="rId170" tooltip="MGI:MGI:1336878 (go to the details page for Taf1)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1336878" xr:uid="{74396360-00BC-C74C-9AEC-6AC31B9A2C77}"/>
+    <hyperlink ref="C53" r:id="rId171" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{A6F1BEFC-8A4D-CB4F-855C-8810D8C39053}"/>
+    <hyperlink ref="D53" r:id="rId172" tooltip="PANTHER:PTHR13900 (go to the page for transcription initiation factor tfiid pthr13900)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR13900" xr:uid="{34130753-8AA6-E94A-A744-47FA9AC86A9C}"/>
+    <hyperlink ref="A22" r:id="rId173" tooltip="MGI:MGI:1343101 (go to the details page for Kat2a)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1343101" xr:uid="{72BAA48F-7763-0442-94E4-96586BE7BA78}"/>
+    <hyperlink ref="C22" r:id="rId174" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{F0C12366-70BE-2A47-B9E9-0074B13D1890}"/>
+    <hyperlink ref="D22" r:id="rId175" tooltip="PANTHER:PTHR22880 (go to the page for falz-related bromodomain-containing proteins pthr22880)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR22880" xr:uid="{57CAD10D-71A0-DE4E-A4C8-72F654A52B85}"/>
+    <hyperlink ref="A21" r:id="rId176" tooltip="MGI:MGI:1917264 (go to the details page for Kat14)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1917264" xr:uid="{7C9B92D0-34EF-8F40-85D0-92F948E47B0E}"/>
+    <hyperlink ref="C21" r:id="rId177" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{0F77DC95-E9FE-3642-8FD2-3F0E9DB2F459}"/>
+    <hyperlink ref="D21" r:id="rId178" tooltip="PANTHER:PTHR20916 (go to the page for cysteine and glycine-rich protein 2 binding protein pthr20916)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR20916" xr:uid="{71B9CACF-4D0C-D24A-9815-DA55CC6765A7}"/>
+    <hyperlink ref="A61" r:id="rId179" tooltip="MGI:MGI:1888697 (go to the details page for Taf9)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:1888697" xr:uid="{50208158-BDD3-2F4B-BEA4-5DABDE99D30C}"/>
+    <hyperlink ref="C61" r:id="rId180" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{0D169766-02AF-B643-B476-A0689AC95D3C}"/>
+    <hyperlink ref="D61" r:id="rId181" tooltip="PANTHER:PTHR12595 (go to the page for pos9-activating factor fap7-related pthr12595)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR12595" xr:uid="{3EFD1EDE-62FC-9D44-B056-B84689573B42}"/>
+    <hyperlink ref="A1" r:id="rId182" tooltip="MGI:MGI:109349 (go to the details page for Atf2)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:109349" xr:uid="{6F08706D-95C3-9342-A24B-C589E830D666}"/>
+    <hyperlink ref="C1" r:id="rId183" tooltip="GO:0004402 (go to the term details page for histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0004402" xr:uid="{7B43C000-6542-4F4D-936D-339DDC1BB844}"/>
+    <hyperlink ref="D1" r:id="rId184" tooltip="PANTHER:PTHR19304 (go to the page for cyclic-amp response element binding protein pthr19304)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR19304" xr:uid="{551DB6CA-687B-B447-8A70-2A6A16DA1895}"/>
+    <hyperlink ref="A2" r:id="rId185" tooltip="MGI:MGI:109337 (go to the details page for Brca2)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:109337" xr:uid="{A936D47E-3AC6-9641-9EDF-3D1151A23BF7}"/>
+    <hyperlink ref="C2" r:id="rId186" tooltip="GO:0010484 (go to the term details page for H3 histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0010484" xr:uid="{9B085E59-B386-3543-9CC9-B90F326DEDBA}"/>
+    <hyperlink ref="D2" r:id="rId187" tooltip="PANTHER:PTHR11289 (go to the page for breast cancer type 2 susceptibility protein brca2 pthr11289)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR11289" xr:uid="{FB1ECA7B-1AF4-ED4F-8123-AA03A65B5060}"/>
+    <hyperlink ref="A38" r:id="rId188" tooltip="MGI:MGI:3782661 (go to the details page for Nat8f7)" display="http://amigo.geneontology.org/amigo/gene_product/MGI:MGI:3782661" xr:uid="{66140FE1-1D8B-8045-AA00-40E712900288}"/>
+    <hyperlink ref="C38" r:id="rId189" tooltip="GO:0010485 (go to the term details page for H4 histone acetyltransferase activity)" display="http://amigo.geneontology.org/amigo/term/GO:0010485" xr:uid="{08892362-AE32-6547-A256-5B34E3A79DC0}"/>
+    <hyperlink ref="D38" r:id="rId190" tooltip="PANTHER:PTHR13947 (go to the page for family not named pthr13947)" display="http://www.pantherdb.org/panther/lookupId.jsp?id=PTHR13947" xr:uid="{766D496A-BE73-F844-9120-CF8B68251947}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result/all_species_mat.xlsx
+++ b/result/all_species_mat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Mac_Workplace/Mac_WorkSpace/leptin/multi-species-compare/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41B8C76-0383-CB41-9DCC-D4E871B3052E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A96D40F-5230-BF49-849C-865036F105CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1380" windowWidth="37040" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="1380" windowWidth="37040" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_species_mat" sheetId="1" r:id="rId1"/>
@@ -766,7 +766,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,12 +946,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1114,16 +1108,15 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1482,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1545,168 +1538,168 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>52</v>
-      </c>
-      <c r="D3" s="1">
-        <v>52</v>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>6</v>
-      </c>
-      <c r="O3">
-        <v>6</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>126</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1">
-        <v>128</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>43</v>
-      </c>
-      <c r="H4">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4">
+      <c r="O4">
+        <v>17</v>
+      </c>
+      <c r="P4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>12</v>
-      </c>
-      <c r="O4">
-        <v>19</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
       <c r="Q4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -1714,55 +1707,55 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>281</v>
+      </c>
+      <c r="F5">
+        <v>90</v>
+      </c>
+      <c r="G5">
+        <v>95</v>
+      </c>
+      <c r="H5">
+        <v>62</v>
+      </c>
+      <c r="I5">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>17</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>9</v>
+      </c>
+      <c r="Q5">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1">
-        <v>283</v>
-      </c>
-      <c r="F5" s="1">
-        <v>92</v>
-      </c>
-      <c r="G5" s="1">
-        <v>96</v>
-      </c>
-      <c r="H5" s="1">
-        <v>64</v>
-      </c>
-      <c r="I5" s="1">
-        <v>39</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
+      <c r="R5">
         <v>5</v>
-      </c>
-      <c r="N5">
-        <v>19</v>
-      </c>
-      <c r="O5">
-        <v>22</v>
-      </c>
-      <c r="P5">
-        <v>11</v>
-      </c>
-      <c r="Q5">
-        <v>8</v>
-      </c>
-      <c r="R5">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -1770,55 +1763,55 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>412</v>
+      </c>
+      <c r="G6">
+        <v>255</v>
+      </c>
+      <c r="H6">
+        <v>147</v>
+      </c>
+      <c r="I6">
+        <v>113</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>92</v>
-      </c>
-      <c r="F6" s="1">
-        <v>414</v>
-      </c>
-      <c r="G6" s="1">
-        <v>256</v>
-      </c>
-      <c r="H6" s="1">
-        <v>149</v>
-      </c>
-      <c r="I6" s="1">
-        <v>115</v>
-      </c>
-      <c r="J6">
-        <v>9</v>
-      </c>
-      <c r="K6">
+      <c r="L6">
         <v>8</v>
       </c>
-      <c r="L6">
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>27</v>
+      </c>
+      <c r="O6">
+        <v>33</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+      <c r="Q6">
         <v>10</v>
       </c>
-      <c r="M6">
-        <v>9</v>
-      </c>
-      <c r="N6">
-        <v>29</v>
-      </c>
-      <c r="O6">
-        <v>35</v>
-      </c>
-      <c r="P6">
-        <v>14</v>
-      </c>
-      <c r="Q6">
-        <v>12</v>
-      </c>
       <c r="R6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1826,55 +1819,55 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>43</v>
-      </c>
-      <c r="E7" s="1">
-        <v>96</v>
-      </c>
-      <c r="F7" s="1">
-        <v>256</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2639</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1211</v>
-      </c>
-      <c r="I7" s="1">
-        <v>221</v>
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>95</v>
+      </c>
+      <c r="F7">
+        <v>255</v>
+      </c>
+      <c r="G7">
+        <v>2638</v>
+      </c>
+      <c r="H7">
+        <v>1210</v>
+      </c>
+      <c r="I7">
+        <v>220</v>
       </c>
       <c r="J7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N7">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O7">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R7">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1882,55 +1875,55 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>62</v>
+      </c>
+      <c r="F8">
+        <v>147</v>
+      </c>
+      <c r="G8">
+        <v>1210</v>
+      </c>
+      <c r="H8">
+        <v>2238</v>
+      </c>
+      <c r="I8">
+        <v>172</v>
+      </c>
+      <c r="J8">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>15</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>171</v>
+      </c>
+      <c r="O8">
+        <v>225</v>
+      </c>
+      <c r="P8">
+        <v>17</v>
+      </c>
+      <c r="Q8">
+        <v>51</v>
+      </c>
+      <c r="R8">
         <v>40</v>
-      </c>
-      <c r="E8" s="1">
-        <v>64</v>
-      </c>
-      <c r="F8" s="1">
-        <v>149</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1211</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2240</v>
-      </c>
-      <c r="I8" s="1">
-        <v>174</v>
-      </c>
-      <c r="J8">
-        <v>33</v>
-      </c>
-      <c r="K8">
-        <v>17</v>
-      </c>
-      <c r="L8">
-        <v>22</v>
-      </c>
-      <c r="M8">
-        <v>10</v>
-      </c>
-      <c r="N8">
-        <v>173</v>
-      </c>
-      <c r="O8">
-        <v>227</v>
-      </c>
-      <c r="P8">
-        <v>19</v>
-      </c>
-      <c r="Q8">
-        <v>53</v>
-      </c>
-      <c r="R8">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1938,55 +1931,55 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <v>113</v>
+      </c>
+      <c r="G9">
+        <v>220</v>
+      </c>
+      <c r="H9">
+        <v>172</v>
+      </c>
+      <c r="I9">
+        <v>377</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>23</v>
+      </c>
+      <c r="O9">
+        <v>24</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>39</v>
-      </c>
-      <c r="F9" s="1">
-        <v>115</v>
-      </c>
-      <c r="G9" s="1">
-        <v>221</v>
-      </c>
-      <c r="H9" s="1">
-        <v>174</v>
-      </c>
-      <c r="I9" s="1">
-        <v>379</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-      <c r="N9">
-        <v>25</v>
-      </c>
-      <c r="O9">
-        <v>26</v>
-      </c>
-      <c r="P9">
-        <v>7</v>
-      </c>
-      <c r="Q9">
-        <v>5</v>
-      </c>
       <c r="R9">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1994,55 +1987,55 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>31</v>
+      </c>
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
+      <c r="J10">
+        <v>151</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>28</v>
+      </c>
+      <c r="M10">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>40</v>
+      </c>
+      <c r="O10">
+        <v>42</v>
+      </c>
+      <c r="P10">
         <v>9</v>
       </c>
-      <c r="G10">
-        <v>27</v>
-      </c>
-      <c r="H10">
-        <v>33</v>
-      </c>
-      <c r="I10">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1">
-        <v>153</v>
-      </c>
-      <c r="K10" s="1">
-        <v>14</v>
-      </c>
-      <c r="L10" s="1">
-        <v>30</v>
-      </c>
-      <c r="M10" s="1">
-        <v>16</v>
-      </c>
-      <c r="N10" s="1">
-        <v>42</v>
-      </c>
-      <c r="O10" s="1">
-        <v>44</v>
-      </c>
-      <c r="P10" s="1">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>15</v>
-      </c>
-      <c r="R10" s="1">
-        <v>25</v>
+      <c r="Q10">
+        <v>13</v>
+      </c>
+      <c r="R10">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -2050,55 +2043,55 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>38</v>
+      </c>
+      <c r="L11">
         <v>13</v>
       </c>
-      <c r="H11">
-        <v>17</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="M11">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
         <v>14</v>
       </c>
-      <c r="K11" s="1">
-        <v>40</v>
-      </c>
-      <c r="L11" s="1">
-        <v>15</v>
-      </c>
-      <c r="M11" s="1">
-        <v>14</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>18</v>
+      </c>
+      <c r="R11">
         <v>11</v>
-      </c>
-      <c r="O11" s="1">
-        <v>16</v>
-      </c>
-      <c r="P11" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>20</v>
-      </c>
-      <c r="R11" s="1">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -2106,55 +2099,55 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>22</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="J12" s="1">
-        <v>30</v>
-      </c>
-      <c r="K12" s="1">
-        <v>15</v>
-      </c>
-      <c r="L12" s="1">
-        <v>59</v>
-      </c>
-      <c r="M12" s="1">
-        <v>16</v>
-      </c>
-      <c r="N12" s="1">
-        <v>21</v>
-      </c>
-      <c r="O12" s="1">
-        <v>25</v>
-      </c>
-      <c r="P12" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>15</v>
-      </c>
-      <c r="R12" s="1">
-        <v>21</v>
+      <c r="J12">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>57</v>
+      </c>
+      <c r="M12">
+        <v>14</v>
+      </c>
+      <c r="N12">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>23</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>13</v>
+      </c>
+      <c r="R12">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -2162,55 +2155,55 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>9</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1">
-        <v>16</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="J13">
         <v>14</v>
       </c>
-      <c r="L13" s="1">
-        <v>16</v>
-      </c>
-      <c r="M13" s="1">
-        <v>64</v>
-      </c>
-      <c r="N13" s="1">
-        <v>17</v>
-      </c>
-      <c r="O13" s="1">
-        <v>22</v>
-      </c>
-      <c r="P13" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>22</v>
-      </c>
-      <c r="R13" s="1">
-        <v>17</v>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <v>62</v>
+      </c>
+      <c r="N13">
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -2218,55 +2211,55 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>206</v>
+      </c>
+      <c r="H14">
+        <v>171</v>
+      </c>
+      <c r="I14">
+        <v>23</v>
+      </c>
+      <c r="J14">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
         <v>19</v>
       </c>
-      <c r="F14">
-        <v>29</v>
-      </c>
-      <c r="G14">
-        <v>207</v>
-      </c>
-      <c r="H14">
-        <v>173</v>
-      </c>
-      <c r="I14">
-        <v>25</v>
-      </c>
-      <c r="J14" s="1">
-        <v>42</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="M14">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>705</v>
+      </c>
+      <c r="O14">
+        <v>573</v>
+      </c>
+      <c r="P14">
         <v>11</v>
       </c>
-      <c r="L14" s="1">
-        <v>21</v>
-      </c>
-      <c r="M14" s="1">
-        <v>17</v>
-      </c>
-      <c r="N14" s="1">
-        <v>707</v>
-      </c>
-      <c r="O14" s="1">
-        <v>575</v>
-      </c>
-      <c r="P14" s="1">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>68</v>
-      </c>
-      <c r="R14" s="1">
-        <v>49</v>
+      <c r="Q14">
+        <v>66</v>
+      </c>
+      <c r="R14">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -2274,55 +2267,55 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H15">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I15">
-        <v>26</v>
-      </c>
-      <c r="J15" s="1">
-        <v>44</v>
-      </c>
-      <c r="K15" s="1">
-        <v>16</v>
-      </c>
-      <c r="L15" s="1">
-        <v>25</v>
-      </c>
-      <c r="M15" s="1">
-        <v>22</v>
-      </c>
-      <c r="N15" s="1">
-        <v>575</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1101</v>
-      </c>
-      <c r="P15" s="1">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>97</v>
-      </c>
-      <c r="R15" s="1">
-        <v>48</v>
+        <v>24</v>
+      </c>
+      <c r="J15">
+        <v>42</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>23</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>573</v>
+      </c>
+      <c r="O15">
+        <v>1099</v>
+      </c>
+      <c r="P15">
+        <v>11</v>
+      </c>
+      <c r="Q15">
+        <v>95</v>
+      </c>
+      <c r="R15">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -2330,55 +2323,55 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>17</v>
+      </c>
+      <c r="I16">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16">
         <v>5</v>
       </c>
-      <c r="E16">
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
         <v>11</v>
       </c>
-      <c r="F16">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <v>24</v>
-      </c>
-      <c r="H16">
-        <v>19</v>
-      </c>
-      <c r="I16">
-        <v>7</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="O16">
         <v>11</v>
       </c>
-      <c r="K16" s="1">
-        <v>9</v>
-      </c>
-      <c r="L16" s="1">
-        <v>7</v>
-      </c>
-      <c r="M16" s="1">
-        <v>10</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="P16">
+        <v>95</v>
+      </c>
+      <c r="Q16">
         <v>13</v>
       </c>
-      <c r="O16" s="1">
-        <v>13</v>
-      </c>
-      <c r="P16" s="1">
-        <v>97</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="R16">
         <v>15</v>
-      </c>
-      <c r="R16" s="1">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -2386,55 +2379,55 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>65</v>
+      </c>
+      <c r="H17">
+        <v>51</v>
+      </c>
+      <c r="I17">
         <v>3</v>
       </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-      <c r="G17">
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
         <v>66</v>
       </c>
-      <c r="H17">
-        <v>53</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17" s="1">
-        <v>15</v>
-      </c>
-      <c r="K17" s="1">
-        <v>20</v>
-      </c>
-      <c r="L17" s="1">
-        <v>15</v>
-      </c>
-      <c r="M17" s="1">
-        <v>22</v>
-      </c>
-      <c r="N17" s="1">
-        <v>68</v>
-      </c>
-      <c r="O17" s="1">
-        <v>97</v>
-      </c>
-      <c r="P17" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>244</v>
-      </c>
-      <c r="R17" s="1">
-        <v>36</v>
+      <c r="O17">
+        <v>95</v>
+      </c>
+      <c r="P17">
+        <v>13</v>
+      </c>
+      <c r="Q17">
+        <v>242</v>
+      </c>
+      <c r="R17">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -2442,100 +2435,100 @@
         <v>16</v>
       </c>
       <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
       <c r="E18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>42</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>23</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>19</v>
+      </c>
+      <c r="M18">
         <v>15</v>
       </c>
-      <c r="G18">
-        <v>43</v>
-      </c>
-      <c r="H18">
-        <v>42</v>
-      </c>
-      <c r="I18">
-        <v>11</v>
-      </c>
-      <c r="J18" s="1">
-        <v>25</v>
-      </c>
-      <c r="K18" s="1">
-        <v>13</v>
-      </c>
-      <c r="L18" s="1">
-        <v>21</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="N18">
+        <v>47</v>
+      </c>
+      <c r="O18">
+        <v>46</v>
+      </c>
+      <c r="P18">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>34</v>
+      </c>
+      <c r="R18">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="1">
-        <v>49</v>
-      </c>
-      <c r="O18" s="1">
-        <v>48</v>
-      </c>
-      <c r="P18" s="1">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>36</v>
-      </c>
-      <c r="R18" s="1">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2551,7 +2544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1207F7A-C658-5E43-B2A4-6647153DA9BF}">
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
@@ -2564,1796 +2557,1796 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="6"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
     </row>
     <row r="104" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
     </row>
     <row r="107" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
     </row>
     <row r="110" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
     </row>
     <row r="115" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
     </row>
     <row r="117" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
     </row>
     <row r="120" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
     </row>
     <row r="121" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
     </row>
     <row r="122" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
     </row>
     <row r="123" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
     </row>
     <row r="124" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="126" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
     </row>
     <row r="130" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
     </row>
     <row r="132" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="5"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
     </row>
     <row r="136" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="5"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="5"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="5"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
     </row>
     <row r="142" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="5"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
     </row>
     <row r="143" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="5"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
     </row>
     <row r="144" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
     </row>
     <row r="146" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
     </row>
     <row r="147" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
     </row>
     <row r="150" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
     </row>
     <row r="151" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
     </row>
     <row r="152" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
     </row>
     <row r="153" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
     </row>
     <row r="154" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
     </row>
     <row r="156" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
+      <c r="A156" s="3"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
     </row>
     <row r="157" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
+      <c r="A158" s="3"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
     </row>
     <row r="160" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="5"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
     </row>
     <row r="161" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="5"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
     </row>
     <row r="162" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="5"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
     </row>
     <row r="163" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="5"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
     </row>
     <row r="164" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
     </row>
     <row r="165" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="5"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
     </row>
     <row r="166" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
     </row>
     <row r="167" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
     </row>
     <row r="168" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="5"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
     </row>
     <row r="169" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="5"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
     </row>
     <row r="170" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="5"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
+      <c r="A170" s="3"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
     </row>
     <row r="171" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="5"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
     </row>
     <row r="172" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
     </row>
     <row r="173" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="5"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
+      <c r="A173" s="3"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
     </row>
     <row r="174" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="5"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="5"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="6"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="4"/>
     </row>
     <row r="176" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="5"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
     </row>
     <row r="177" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="5"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
     </row>
     <row r="178" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="5"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
     </row>
     <row r="179" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="5"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
+      <c r="A179" s="3"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
     </row>
     <row r="180" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="5"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
     </row>
     <row r="181" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="5"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
+      <c r="A181" s="3"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
     </row>
     <row r="182" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="5"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
+      <c r="A182" s="3"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
     </row>
     <row r="183" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="5"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
+      <c r="A183" s="3"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
     </row>
     <row r="184" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="5"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
+      <c r="A184" s="3"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
     </row>
     <row r="185" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="5"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
+      <c r="A185" s="3"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
     </row>
     <row r="186" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
+      <c r="A186" s="3"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
     </row>
     <row r="187" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="5"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
+      <c r="A187" s="3"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
     </row>
     <row r="188" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="5"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
     </row>
     <row r="189" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="5"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
+      <c r="A189" s="3"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
     </row>
     <row r="190" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="5"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
+      <c r="A190" s="3"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
     </row>
     <row r="191" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="5"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
+      <c r="A191" s="3"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
     </row>
     <row r="192" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="5"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
     </row>
     <row r="193" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="5"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
+      <c r="A193" s="3"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
     </row>
     <row r="194" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="5"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
     </row>
     <row r="195" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="5"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
+      <c r="A195" s="3"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
     </row>
     <row r="196" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="5"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
     </row>
     <row r="197" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="5"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
+      <c r="A197" s="3"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
     </row>
     <row r="198" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="5"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
+      <c r="A198" s="3"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
     </row>
     <row r="199" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="5"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
+      <c r="A199" s="3"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
     </row>
     <row r="200" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="5"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
     </row>
     <row r="201" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="5"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
+      <c r="A201" s="3"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
     </row>
     <row r="202" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="5"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
+      <c r="A202" s="3"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
     </row>
     <row r="203" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="5"/>
-      <c r="B203" s="6"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
+      <c r="A203" s="3"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
     </row>
     <row r="204" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="5"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
     </row>
     <row r="205" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="5"/>
-      <c r="B205" s="6"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
     </row>
     <row r="206" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="5"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
     </row>
     <row r="207" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="5"/>
-      <c r="B207" s="6"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
     </row>
     <row r="208" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="5"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
     </row>
     <row r="209" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="5"/>
-      <c r="B209" s="6"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
+      <c r="A209" s="3"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
     </row>
     <row r="210" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="5"/>
-      <c r="B210" s="6"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
+      <c r="A210" s="3"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
     </row>
     <row r="211" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="5"/>
-      <c r="B211" s="6"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
+      <c r="A211" s="3"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
     </row>
     <row r="212" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="5"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
+      <c r="A212" s="3"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="5"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
+      <c r="A213" s="3"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
     </row>
     <row r="214" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A214" s="5"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
+      <c r="A214" s="3"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A1:D214">
